--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_SWT_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R206_SWT_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2120" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4240" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -535,10 +547,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -582,28 +594,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -628,28 +640,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1027,10 +1039,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1074,28 +1086,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1120,28 +1132,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1200,10 +1212,10 @@
       <c r="I37">
         <f>((C37-C36)^2+(D37- D36)^2)^.5</f>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L37" t="n">
@@ -1247,28 +1259,28 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="2">
+      <c r="A39" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B39" t="s" s="2">
+      <c r="B39" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C39" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D39" t="s" s="2">
+      <c r="C39" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E39" t="s" s="2">
+      <c r="E39" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F39" t="s" s="2">
+      <c r="F39" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G39" t="s" s="2">
+      <c r="G39" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H39" t="s" s="2">
+      <c r="H39" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1293,28 +1305,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="B41" t="s" s="2">
+      <c r="B41" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C41" t="s" s="2">
+      <c r="C41" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D41" t="s" s="2">
+      <c r="D41" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E41" t="s" s="2">
+      <c r="E41" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F41" t="s" s="2">
+      <c r="F41" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G41" t="s" s="2">
+      <c r="G41" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H41" t="s" s="2">
+      <c r="H41" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I41" t="s" s="2">
+      <c r="I41" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1546,10 +1558,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1593,28 +1605,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1639,28 +1651,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1719,10 +1731,10 @@
       <c r="I55">
         <f>((C55-C54)^2+(D55- D54)^2)^.5</f>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K55" s="2" t="s">
+      <c r="J55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K55" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L55" t="n">
@@ -1766,28 +1778,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="2">
+      <c r="A57" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C57" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D57" t="s" s="2">
+      <c r="C57" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D57" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1812,28 +1824,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C59" t="s" s="2">
+      <c r="C59" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D59" t="s" s="2">
+      <c r="D59" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I59" t="s" s="2">
+      <c r="I59" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1904,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1951,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +1997,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2065,10 +2077,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2112,28 +2124,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2158,28 +2170,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2238,10 +2250,10 @@
       <c r="I73">
         <f>((C73-C72)^2+(D73- D72)^2)^.5</f>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K73" s="2" t="s">
+      <c r="J73" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L73" t="n">
@@ -2285,28 +2297,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="2">
+      <c r="A75" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C75" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D75" t="s" s="2">
+      <c r="C75" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D75" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2331,28 +2343,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I77" t="s" s="2">
+      <c r="I77" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2411,10 +2423,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2458,28 +2470,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2504,28 +2516,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2757,10 +2769,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="2" t="s">
+      <c r="J91" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2804,28 +2816,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="2">
+      <c r="A93" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="2">
+      <c r="C93" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="2">
+      <c r="E93" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="2">
+      <c r="F93" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="2">
+      <c r="G93" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="2">
+      <c r="H93" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2850,28 +2862,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="2">
+      <c r="C95" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="2">
+      <c r="D95" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="2">
+      <c r="I95" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2930,10 +2942,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="2" t="s">
+      <c r="J97" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2977,28 +2989,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="2">
+      <c r="A99" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="2">
+      <c r="C99" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3023,28 +3035,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="2">
+      <c r="C101" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="2">
+      <c r="D101" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="2">
+      <c r="I101" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3103,10 +3115,10 @@
       <c r="I103">
         <f>((C103-C102)^2+(D103- D102)^2)^.5</f>
       </c>
-      <c r="J103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K103" s="2" t="s">
+      <c r="J103" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K103" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L103" t="n">
@@ -3150,28 +3162,28 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="2">
+      <c r="A105" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B105" t="s" s="2">
+      <c r="B105" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C105" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D105" t="s" s="2">
+      <c r="C105" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D105" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E105" t="s" s="2">
+      <c r="E105" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F105" t="s" s="2">
+      <c r="F105" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G105" t="s" s="2">
+      <c r="G105" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H105" t="s" s="2">
+      <c r="H105" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3196,28 +3208,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C107" t="s" s="2">
+      <c r="C107" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D107" t="s" s="2">
+      <c r="D107" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I107" t="s" s="2">
+      <c r="I107" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3276,10 +3288,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3323,28 +3335,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3369,28 +3381,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3449,10 +3461,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3496,28 +3508,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3542,28 +3554,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3622,10 +3634,10 @@
       <c r="I121">
         <f>((C121-C120)^2+(D121- D120)^2)^.5</f>
       </c>
-      <c r="J121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K121" s="2" t="s">
+      <c r="J121" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L121" t="n">
@@ -3669,28 +3681,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="2">
+      <c r="A123" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C123" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D123" t="s" s="2">
+      <c r="C123" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D123" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3715,28 +3727,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I125" t="s" s="2">
+      <c r="I125" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3795,10 +3807,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3842,28 +3854,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3888,28 +3900,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3968,10 +3980,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4015,28 +4027,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4061,28 +4073,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4141,10 +4153,10 @@
       <c r="I139">
         <f>((C139-C138)^2+(D139- D138)^2)^.5</f>
       </c>
-      <c r="J139" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K139" s="2" t="s">
+      <c r="J139" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K139" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L139" t="n">
@@ -4188,28 +4200,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="2">
+      <c r="A141" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C141" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D141" t="s" s="2">
+      <c r="C141" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D141" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4234,28 +4246,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I143" t="s" s="2">
+      <c r="I143" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4314,10 +4326,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4361,28 +4373,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4407,28 +4419,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4487,10 +4499,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4534,28 +4546,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4580,28 +4592,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4660,10 +4672,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4707,28 +4719,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4753,28 +4765,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4833,10 +4845,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4880,28 +4892,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4926,28 +4938,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5006,10 +5018,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5053,28 +5065,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5099,28 +5111,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5179,10 +5191,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5226,28 +5238,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5272,28 +5284,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5352,10 +5364,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5399,28 +5411,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5445,28 +5457,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5525,10 +5537,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5572,28 +5584,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5618,28 +5630,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5698,10 +5710,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5745,28 +5757,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5791,28 +5803,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5871,10 +5883,10 @@
       <c r="I199">
         <f>((C199-C198)^2+(D199- D198)^2)^.5</f>
       </c>
-      <c r="J199" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K199" s="2" t="s">
+      <c r="J199" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K199" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L199" t="n">
@@ -5918,28 +5930,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="s" s="2">
+      <c r="A201" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C201" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D201" t="s" s="2">
+      <c r="C201" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D201" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5964,28 +5976,28 @@
       </c>
     </row>
     <row r="203">
-      <c r="B203" t="s" s="2">
+      <c r="B203" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C203" t="s" s="2">
+      <c r="C203" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D203" t="s" s="2">
+      <c r="D203" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E203" t="s" s="2">
+      <c r="E203" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F203" t="s" s="2">
+      <c r="F203" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G203" t="s" s="2">
+      <c r="G203" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H203" t="s" s="2">
+      <c r="H203" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I203" t="s" s="2">
+      <c r="I203" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6363,10 +6375,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6410,28 +6422,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6456,28 +6468,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6536,10 +6548,10 @@
       <c r="I222">
         <f>((C222-C221)^2+(D222- D221)^2)^.5</f>
       </c>
-      <c r="J222" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K222" s="2" t="s">
+      <c r="J222" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K222" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L222" t="n">
@@ -6583,28 +6595,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="s" s="2">
+      <c r="A224" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C224" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D224" t="s" s="2">
+      <c r="C224" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D224" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6629,28 +6641,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C226" t="s" s="2">
+      <c r="C226" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D226" t="s" s="2">
+      <c r="D226" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I226" t="s" s="2">
+      <c r="I226" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6709,10 +6721,10 @@
       <c r="I228">
         <f>((C228-C227)^2+(D228- D227)^2)^.5</f>
       </c>
-      <c r="J228" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K228" s="2" t="s">
+      <c r="J228" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K228" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L228" t="n">
@@ -6756,28 +6768,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="s" s="2">
+      <c r="A230" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C230" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D230" t="s" s="2">
+      <c r="C230" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D230" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6802,28 +6814,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C232" t="s" s="2">
+      <c r="C232" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D232" t="s" s="2">
+      <c r="D232" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I232" t="s" s="2">
+      <c r="I232" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6882,10 +6894,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6929,28 +6941,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6975,28 +6987,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7055,10 +7067,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7102,28 +7114,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7148,28 +7160,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7228,10 +7240,10 @@
       <c r="I246">
         <f>((C246-C245)^2+(D246- D245)^2)^.5</f>
       </c>
-      <c r="J246" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K246" s="2" t="s">
+      <c r="J246" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L246" t="n">
@@ -7275,28 +7287,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="s" s="2">
+      <c r="A248" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C248" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D248" t="s" s="2">
+      <c r="C248" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D248" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7321,28 +7333,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C250" t="s" s="2">
+      <c r="C250" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D250" t="s" s="2">
+      <c r="D250" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I250" t="s" s="2">
+      <c r="I250" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7401,10 +7413,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="2" t="s">
+      <c r="J252" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7448,28 +7460,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="2">
+      <c r="A254" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="2">
+      <c r="C254" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7494,28 +7506,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="2">
+      <c r="C256" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="2">
+      <c r="D256" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="2">
+      <c r="I256" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7574,10 +7586,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7621,28 +7633,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7667,28 +7679,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7747,10 +7759,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7794,28 +7806,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7840,28 +7852,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7920,10 +7932,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7967,28 +7979,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8013,28 +8025,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8093,10 +8105,10 @@
       <c r="I276">
         <f>((C276-C275)^2+(D276- D275)^2)^.5</f>
       </c>
-      <c r="J276" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K276" s="2" t="s">
+      <c r="J276" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K276" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L276" t="n">
@@ -8140,28 +8152,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="s" s="2">
+      <c r="A278" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B278" t="s" s="2">
+      <c r="B278" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C278" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D278" t="s" s="2">
+      <c r="C278" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D278" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E278" t="s" s="2">
+      <c r="E278" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F278" t="s" s="2">
+      <c r="F278" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G278" t="s" s="2">
+      <c r="G278" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H278" t="s" s="2">
+      <c r="H278" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8186,28 +8198,28 @@
       </c>
     </row>
     <row r="280">
-      <c r="B280" t="s" s="2">
+      <c r="B280" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C280" t="s" s="2">
+      <c r="C280" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D280" t="s" s="2">
+      <c r="D280" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E280" t="s" s="2">
+      <c r="E280" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F280" t="s" s="2">
+      <c r="F280" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G280" t="s" s="2">
+      <c r="G280" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H280" t="s" s="2">
+      <c r="H280" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I280" t="s" s="2">
+      <c r="I280" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8266,10 +8278,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8313,28 +8325,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8359,28 +8371,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8439,10 +8451,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="2" t="s">
+      <c r="J288" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8486,28 +8498,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="2">
+      <c r="A290" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="2">
+      <c r="C290" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8532,28 +8544,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="2">
+      <c r="B292" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="2">
+      <c r="C292" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="2">
+      <c r="D292" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="2">
+      <c r="E292" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="2">
+      <c r="F292" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="2">
+      <c r="G292" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="2">
+      <c r="H292" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="2">
+      <c r="I292" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8612,10 +8624,10 @@
       <c r="I294">
         <f>((C294-C293)^2+(D294- D293)^2)^.5</f>
       </c>
-      <c r="J294" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K294" s="2" t="s">
+      <c r="J294" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K294" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L294" t="n">
@@ -8659,28 +8671,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="s" s="2">
+      <c r="A296" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C296" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D296" t="s" s="2">
+      <c r="C296" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D296" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8705,28 +8717,28 @@
       </c>
     </row>
     <row r="298">
-      <c r="B298" t="s" s="2">
+      <c r="B298" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C298" t="s" s="2">
+      <c r="C298" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D298" t="s" s="2">
+      <c r="D298" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E298" t="s" s="2">
+      <c r="E298" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F298" t="s" s="2">
+      <c r="F298" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G298" t="s" s="2">
+      <c r="G298" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H298" t="s" s="2">
+      <c r="H298" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I298" t="s" s="2">
+      <c r="I298" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8785,10 +8797,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8832,28 +8844,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8878,28 +8890,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9335,10 +9347,10 @@
       <c r="I319">
         <f>((C319-C318)^2+(D319- D318)^2)^.5</f>
       </c>
-      <c r="J319" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K319" s="2" t="s">
+      <c r="J319" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K319" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L319" t="n">
@@ -9382,28 +9394,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="s" s="2">
+      <c r="A321" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C321" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D321" t="s" s="2">
+      <c r="C321" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D321" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9428,28 +9440,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C323" t="s" s="2">
+      <c r="C323" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D323" t="s" s="2">
+      <c r="D323" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I323" t="s" s="2">
+      <c r="I323" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9508,10 +9520,10 @@
       <c r="I325">
         <f>((C325-C324)^2+(D325- D324)^2)^.5</f>
       </c>
-      <c r="J325" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K325" s="2" t="s">
+      <c r="J325" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K325" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L325" t="n">
@@ -9555,28 +9567,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="s" s="2">
+      <c r="A327" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C327" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D327" t="s" s="2">
+      <c r="C327" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D327" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9601,28 +9613,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C329" t="s" s="2">
+      <c r="C329" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D329" t="s" s="2">
+      <c r="D329" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I329" t="s" s="2">
+      <c r="I329" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9681,10 +9693,10 @@
       <c r="I331">
         <f>((C331-C330)^2+(D331- D330)^2)^.5</f>
       </c>
-      <c r="J331" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K331" s="2" t="s">
+      <c r="J331" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K331" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L331" t="n">
@@ -9728,28 +9740,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="s" s="2">
+      <c r="A333" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C333" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D333" t="s" s="2">
+      <c r="C333" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D333" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9774,28 +9786,28 @@
       </c>
     </row>
     <row r="335">
-      <c r="B335" t="s" s="2">
+      <c r="B335" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C335" t="s" s="2">
+      <c r="C335" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D335" t="s" s="2">
+      <c r="D335" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E335" t="s" s="2">
+      <c r="E335" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F335" t="s" s="2">
+      <c r="F335" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G335" t="s" s="2">
+      <c r="G335" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H335" t="s" s="2">
+      <c r="H335" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I335" t="s" s="2">
+      <c r="I335" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9854,10 +9866,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="2" t="s">
+      <c r="J337" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9901,28 +9913,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="2">
+      <c r="A339" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="2">
+      <c r="C339" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9947,28 +9959,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="2">
+      <c r="B341" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="2">
+      <c r="C341" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="2">
+      <c r="D341" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="2">
+      <c r="E341" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="2">
+      <c r="F341" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="2">
+      <c r="G341" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="2">
+      <c r="H341" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="2">
+      <c r="I341" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10027,10 +10039,10 @@
       <c r="I343">
         <f>((C343-C342)^2+(D343- D342)^2)^.5</f>
       </c>
-      <c r="J343" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K343" s="2" t="s">
+      <c r="J343" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K343" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L343" t="n">
@@ -10074,28 +10086,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="s" s="2">
+      <c r="A345" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C345" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D345" t="s" s="2">
+      <c r="C345" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D345" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10120,28 +10132,28 @@
       </c>
     </row>
     <row r="347">
-      <c r="B347" t="s" s="2">
+      <c r="B347" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C347" t="s" s="2">
+      <c r="C347" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D347" t="s" s="2">
+      <c r="D347" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E347" t="s" s="2">
+      <c r="E347" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F347" t="s" s="2">
+      <c r="F347" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G347" t="s" s="2">
+      <c r="G347" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H347" t="s" s="2">
+      <c r="H347" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I347" t="s" s="2">
+      <c r="I347" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10200,10 +10212,10 @@
       <c r="I349">
         <f>((C349-C348)^2+(D349- D348)^2)^.5</f>
       </c>
-      <c r="J349" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K349" s="2" t="s">
+      <c r="J349" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K349" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L349" t="n">
@@ -10247,28 +10259,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="s" s="2">
+      <c r="A351" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C351" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D351" t="s" s="2">
+      <c r="C351" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D351" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10293,28 +10305,28 @@
       </c>
     </row>
     <row r="353">
-      <c r="B353" t="s" s="2">
+      <c r="B353" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C353" t="s" s="2">
+      <c r="C353" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D353" t="s" s="2">
+      <c r="D353" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E353" t="s" s="2">
+      <c r="E353" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F353" t="s" s="2">
+      <c r="F353" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G353" t="s" s="2">
+      <c r="G353" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H353" t="s" s="2">
+      <c r="H353" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I353" t="s" s="2">
+      <c r="I353" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10373,10 +10385,10 @@
       <c r="I355">
         <f>((C355-C354)^2+(D355- D354)^2)^.5</f>
       </c>
-      <c r="J355" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K355" s="2" t="s">
+      <c r="J355" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K355" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L355" t="n">
@@ -10420,28 +10432,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="s" s="2">
+      <c r="A357" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C357" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D357" t="s" s="2">
+      <c r="C357" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D357" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10466,28 +10478,28 @@
       </c>
     </row>
     <row r="359">
-      <c r="B359" t="s" s="2">
+      <c r="B359" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C359" t="s" s="2">
+      <c r="C359" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D359" t="s" s="2">
+      <c r="D359" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E359" t="s" s="2">
+      <c r="E359" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F359" t="s" s="2">
+      <c r="F359" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G359" t="s" s="2">
+      <c r="G359" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H359" t="s" s="2">
+      <c r="H359" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I359" t="s" s="2">
+      <c r="I359" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10546,10 +10558,10 @@
       <c r="I361">
         <f>((C361-C360)^2+(D361- D360)^2)^.5</f>
       </c>
-      <c r="J361" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K361" s="2" t="s">
+      <c r="J361" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K361" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L361" t="n">
@@ -10593,28 +10605,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="s" s="2">
+      <c r="A363" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C363" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D363" t="s" s="2">
+      <c r="C363" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D363" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10639,28 +10651,28 @@
       </c>
     </row>
     <row r="365">
-      <c r="B365" t="s" s="2">
+      <c r="B365" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C365" t="s" s="2">
+      <c r="C365" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D365" t="s" s="2">
+      <c r="D365" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E365" t="s" s="2">
+      <c r="E365" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F365" t="s" s="2">
+      <c r="F365" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G365" t="s" s="2">
+      <c r="G365" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H365" t="s" s="2">
+      <c r="H365" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I365" t="s" s="2">
+      <c r="I365" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10719,10 +10731,10 @@
       <c r="I367">
         <f>((C367-C366)^2+(D367- D366)^2)^.5</f>
       </c>
-      <c r="J367" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K367" s="2" t="s">
+      <c r="J367" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K367" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L367" t="n">
@@ -10766,28 +10778,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="s" s="2">
+      <c r="A369" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C369" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D369" t="s" s="2">
+      <c r="C369" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D369" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10812,28 +10824,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="B371" t="s" s="2">
+      <c r="B371" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C371" t="s" s="2">
+      <c r="C371" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D371" t="s" s="2">
+      <c r="D371" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E371" t="s" s="2">
+      <c r="E371" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F371" t="s" s="2">
+      <c r="F371" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G371" t="s" s="2">
+      <c r="G371" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H371" t="s" s="2">
+      <c r="H371" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I371" t="s" s="2">
+      <c r="I371" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10892,10 +10904,10 @@
       <c r="I373">
         <f>((C373-C372)^2+(D373- D372)^2)^.5</f>
       </c>
-      <c r="J373" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K373" s="2" t="s">
+      <c r="J373" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K373" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L373" t="n">
@@ -10939,28 +10951,28 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="s" s="2">
+      <c r="A375" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B375" t="s" s="2">
+      <c r="B375" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C375" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D375" t="s" s="2">
+      <c r="C375" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D375" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E375" t="s" s="2">
+      <c r="E375" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F375" t="s" s="2">
+      <c r="F375" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G375" t="s" s="2">
+      <c r="G375" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H375" t="s" s="2">
+      <c r="H375" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10985,28 +10997,28 @@
       </c>
     </row>
     <row r="377">
-      <c r="B377" t="s" s="2">
+      <c r="B377" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C377" t="s" s="2">
+      <c r="C377" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D377" t="s" s="2">
+      <c r="D377" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E377" t="s" s="2">
+      <c r="E377" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F377" t="s" s="2">
+      <c r="F377" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G377" t="s" s="2">
+      <c r="G377" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H377" t="s" s="2">
+      <c r="H377" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I377" t="s" s="2">
+      <c r="I377" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11065,10 +11077,10 @@
       <c r="I379">
         <f>((C379-C378)^2+(D379- D378)^2)^.5</f>
       </c>
-      <c r="J379" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K379" s="2" t="s">
+      <c r="J379" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K379" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L379" t="n">
@@ -11112,28 +11124,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="s" s="2">
+      <c r="A381" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B381" t="s" s="2">
+      <c r="B381" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C381" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D381" t="s" s="2">
+      <c r="C381" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D381" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E381" t="s" s="2">
+      <c r="E381" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F381" t="s" s="2">
+      <c r="F381" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G381" t="s" s="2">
+      <c r="G381" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H381" t="s" s="2">
+      <c r="H381" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11158,28 +11170,28 @@
       </c>
     </row>
     <row r="383">
-      <c r="B383" t="s" s="2">
+      <c r="B383" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C383" t="s" s="2">
+      <c r="C383" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D383" t="s" s="2">
+      <c r="D383" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E383" t="s" s="2">
+      <c r="E383" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F383" t="s" s="2">
+      <c r="F383" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G383" t="s" s="2">
+      <c r="G383" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H383" t="s" s="2">
+      <c r="H383" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I383" t="s" s="2">
+      <c r="I383" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11238,10 +11250,10 @@
       <c r="I385">
         <f>((C385-C384)^2+(D385- D384)^2)^.5</f>
       </c>
-      <c r="J385" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K385" s="2" t="s">
+      <c r="J385" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K385" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L385" t="n">
@@ -11285,28 +11297,28 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="s" s="2">
+      <c r="A387" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B387" t="s" s="2">
+      <c r="B387" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C387" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D387" t="s" s="2">
+      <c r="C387" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D387" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E387" t="s" s="2">
+      <c r="E387" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F387" t="s" s="2">
+      <c r="F387" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G387" t="s" s="2">
+      <c r="G387" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H387" t="s" s="2">
+      <c r="H387" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -11331,28 +11343,28 @@
       </c>
     </row>
     <row r="389">
-      <c r="B389" t="s" s="2">
+      <c r="B389" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C389" t="s" s="2">
+      <c r="C389" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D389" t="s" s="2">
+      <c r="D389" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E389" t="s" s="2">
+      <c r="E389" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F389" t="s" s="2">
+      <c r="F389" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G389" t="s" s="2">
+      <c r="G389" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H389" t="s" s="2">
+      <c r="H389" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I389" t="s" s="2">
+      <c r="I389" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -11411,10 +11423,10 @@
       <c r="I391">
         <f>((C391-C390)^2+(D391- D390)^2)^.5</f>
       </c>
-      <c r="J391" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K391" s="2" t="s">
+      <c r="J391" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K391" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L391" t="n">
